--- a/output/downloads/yjj/药监局.xlsx
+++ b/output/downloads/yjj/药监局.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>中药保护品种公告(第28号)(2025年第68号)</t>
+          <t>国家药监局关于发布YY/T 0661—2017《外科植入物 半结晶型聚丙交酯聚合物和共聚物树脂》等3项医疗器械行业标准修改单的公告（2025年第81号）</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -503,52 +503,52 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/zhybhpzh/zhybhpzhgg/20250722092004119.html</t>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ylqxggtg/ylqxhybzhgg/20250901092502116.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\yjj\2025-07-22_中药保护品种公告(第28号)(2025年第68号).zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-09-01_国家药监局关于发布YYT 0661—2017《外科植入物 半结晶型聚丙交酯聚合物和共聚物树脂》等3项医疗器械行业标准修改单的公告（2025年第81号）.zip</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['国家药品监督管理局2025年第81号公告附件1.docx', '国家药品监督管理局2025年第81号公告附件2.docx', '国家药品监督管理局2025年第81号公告附件3.docx']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>药监局-2025-07-22-68</t>
+          <t>药监局-2025-09-01-81</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>国家药监局关于修订复方甘草酸单铵S注射剂说明书的公告（2025年第72号）</t>
+          <t>国家药监局关于废止《医疗器械行业标准的制定 第1部分：阶段划分、代码和程序》等5项医疗器械行业标准的公告（2025年第80号）</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -558,27 +558,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/ypshmshxdgg/20250721152919174.html</t>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ylqxggtg/ylqxhybzhgg/20250901091117100.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -586,24 +586,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\yjj\2025-07-21_国家药监局关于修订复方甘草酸单铵S注射剂说明书的公告（2025年第72号）.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-09-01_国家药监局关于废止《医疗器械行业标准的制定 第1部分：阶段划分、代码和程序》等5项医疗器械行业标准的公告（2025年第80号）.zip</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['国家药品监督管理局2025年第72号公告附件.docx']</t>
+          <t>['国家药品监督管理局2025年第80号公告附件.docx']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>药监局-2025-07-21-72</t>
+          <t>药监局-2025-09-01-80</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>国家药监局关于废止《外科植入物 金属材料 第7部分：可锻和冷加工的钴-铬-镍-钼-铁合金》等3项医疗器械行业标准的公告（2025年第69号）</t>
+          <t>国家药监局关于将牛角膜浑浊度和渗透性试验方法等5项方法纳入化妆品安全技术规范（2015年版）的通告（2025年第32号）</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -613,52 +613,52 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ylqxggtg/ylqxhybzhgg/20250717165828173.html</t>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/hzhpggtg/jmhzhptg/20250829162436189.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\yjj\2025-07-17_国家药监局关于废止《外科植入物 金属材料 第7部分：可锻和冷加工的钴-铬-镍-钼-铁合金》等3项医疗器械行业标准的公告（2025年第69号）.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-08-29_国家药监局关于将牛角膜浑浊度和渗透性试验方法等5项方法纳入化妆品安全技术规范（2015年版）的通告（2025年第32号）.zip</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['国家药品监督管理局2025年第69号公告附件.docx']</t>
+          <t>['附件1 《化妆品安全技术规范》5项标准制定项目汇总表.doc', '附件2 牛角膜浑浊度和渗透性试验方法.docx', '附件3 体外皮肤变态反应 \xa0动力学直接多肽反应试验方法.docx', '附件4 皮肤吸收体外试验方法.docx', '附件5 免疫毒性试验方法.docx', '附件6 口腔黏膜刺激试验方法.docx']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>药监局-2025-07-17-69</t>
+          <t>药监局-2025-08-29-32</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>国家药监局关于发布仿制药参比制剂目录（第九十四批）及调出参比制剂目录品种清单（第二批）的通告（2025年第26号）</t>
+          <t>2025年8月29日中药品种保护受理公示</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -668,52 +668,48 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/ypqtggtg/20250715144206127.html</t>
+          <t>https://www.nmpa.gov.cn/zwfw/zwfwgggs/zypzbhslgs/20250829111543151.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\yjj\2025-07-15_国家药监局关于发布仿制药参比制剂目录（第九十四批）及调出参比制剂目录品种清单（第二批）的通告（2025年第26号）.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-08-29_2025年8月29日中药品种保护受理公示.zip</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['国家药品监督管理局2025年第26号通告附件.docx']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>药监局-2025-07-15-26</t>
+          <t>药监局-2025-08-29-2025年8月29日中药品种保护受理公示</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国家药监局关于批准注册225个医疗器械产品的公告(2025年6月)(2025年第67号)</t>
+          <t>国家药监局关于28批次不符合规定药品的通告（2025年第30号）</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -723,52 +719,52 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ylqxggtg/ylqxpzhzhcchpgg/20250715103236118.html</t>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/ypchj/ypgjjgg/20250827160541147.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\yjj\2025-07-15_国家药监局关于批准注册225个医疗器械产品的公告(2025年6月)(2025年第67号).zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-08-27_国家药监局关于28批次不符合规定药品的通告（2025年第30号）.zip</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['国家药品监督管理局2025年第67号公告附件.doc']</t>
+          <t>['国家药品监督管理局2025年第30号通告附件1.doc', '国家药品监督管理局2025年第30号通告附件2.doc']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>药监局-2025-07-15-67</t>
+          <t>药监局-2025-08-27-30</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025年7月11日中药品种保护受理公示</t>
+          <t>国家药监局关于恢复法速达制药公司氯雷他定原料药进口通关备案的公告（2025年第78号）</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -778,23 +774,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.nmpa.gov.cn/zwfw/zwfwgggs/zypzbhslgs/20250711160235195.html</t>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/ypqtggtg/20250821174547110.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -802,7 +802,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\yjj\2025-07-11_2025年7月11日中药品种保护受理公示.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-08-21_国家药监局关于恢复法速达制药公司氯雷他定原料药进口通关备案的公告（2025年第78号）.zip</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -812,14 +812,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>药监局-2025-07-11-2025年7月11日中药品种保护受理公示</t>
+          <t>药监局-2025-08-21-78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>国家药监局关于注销咽鼓管压力测量仪等17个医疗器械注册证书的公告（2025年第66号）</t>
+          <t>2025年8月21日中药品种保护受理公示</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -829,27 +829,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ylqxggtg/ylqxqtggtg/20250709161525122.html</t>
+          <t>https://www.nmpa.gov.cn/zwfw/zwfwgggs/zypzbhslgs/20250821142508116.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -857,7 +853,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\yjj\2025-07-09_国家药监局关于注销咽鼓管压力测量仪等17个医疗器械注册证书的公告（2025年第66号）.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-08-21_2025年8月21日中药品种保护受理公示.zip</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -867,14 +863,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>药监局-2025-07-09-66</t>
+          <t>药监局-2025-08-21-2025年8月21日中药品种保护受理公示</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>中药保护品种公告(第27号)(2025年第65号)</t>
+          <t>国家药监局关于批准注册295个医疗器械产品的公告(2025年7月)(2025年第77号）</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -884,52 +880,52 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/zhybhpzh/zhybhpzhgg/20250709094300110.html</t>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ylqxggtg/ylqxpzhzhcchpgg/20250820094827131.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\yjj\2025-07-09_中药保护品种公告(第27号)(2025年第65号).zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-08-20_国家药监局关于批准注册295个医疗器械产品的公告(2025年7月)(2025年第77号）.zip</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['国家药品监督管理局2025年第77号公告附件.docx']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>药监局-2025-07-09-65</t>
+          <t>药监局-2025-08-20-77</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>国家药监局关于心神宁胶囊转换为非处方药的公告（2025年第64号）</t>
+          <t>2025年8月8日中药品种保护受理公示</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -939,52 +935,48 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/ypqtggtg/20250708153532110.html</t>
+          <t>https://www.nmpa.gov.cn/zwfw/zwfwgggs/zypzbhslgs/20250808093754148.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\yjj\2025-07-08_国家药监局关于心神宁胶囊转换为非处方药的公告（2025年第64号）.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-08-08_2025年8月8日中药品种保护受理公示.zip</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['国家药品监督管理局2025年第64号公告附件1.docx', '国家药品监督管理局2025年第64号公告附件2.docx']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>药监局-2025-07-08-64</t>
+          <t>药监局-2025-08-08-2025年8月8日中药品种保护受理公示</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>国家药监局关于发布仿制药参比制剂目录（第九十三批）的通告（2025年第24号）</t>
+          <t>国家药监局关于养心定悸胶囊转换为非处方药的公告（2025年第74号）</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -994,52 +986,52 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/ypqtggtg/20250708112827133.html</t>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/ypqtggtg/20250807091427170.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\yjj\2025-07-08_国家药监局关于发布仿制药参比制剂目录（第九十三批）的通告（2025年第24号）.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-08-07_国家药监局关于养心定悸胶囊转换为非处方药的公告（2025年第74号）.zip</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['国家药品监督管理局2025年第24号通告附件.doc']</t>
+          <t>['国家药品监督管理局2025年第74号公告附件1.doc', '国家药品监督管理局2025年第74号公告附件2.doc']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>药监局-2025-07-08-24</t>
+          <t>药监局-2025-08-07-74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>国家药监局关于发布优化全生命周期监管支持高端医疗器械创新发展有关举措的公告（2025年第63号）</t>
+          <t>2025年8月6日中药品种保护受理公示</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1049,27 +1041,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ylqxggtg/ylqxqtggtg/20250703163951182.html</t>
+          <t>https://www.nmpa.gov.cn/zwfw/zwfwgggs/zypzbhslgs/20250806151338126.html</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1077,7 +1065,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\yjj\2025-07-03_国家药监局关于发布优化全生命周期监管支持高端医疗器械创新发展有关举措的公告（2025年第63号）.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-08-06_2025年8月6日中药品种保护受理公示.zip</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1087,14 +1075,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>药监局-2025-07-03-63</t>
+          <t>药监局-2025-08-06-2025年8月6日中药品种保护受理公示</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>国家药监局关于金莲花润喉片转换为非处方药的公告（2025年第57号）</t>
+          <t>国家药监局关于注销冠状动脉球囊扩张导管等 20个医疗器械注册证书的公告（2025年第76号）</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1104,52 +1092,52 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/ypqtggtg/20250702092925170.html</t>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ylqxggtg/ylqxqtggtg/20250804102650139.html</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\yjj\2025-07-02_国家药监局关于金莲花润喉片转换为非处方药的公告（2025年第57号）.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-08-04_国家药监局关于注销冠状动脉球囊扩张导管等 20个医疗器械注册证书的公告（2025年第76号）.zip</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['国家药品监督管理局2025年第57号公告附件1.docx', '国家药品监督管理局2025年第57号公告附件2.docx\n\n']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>药监局-2025-07-02-57</t>
+          <t>药监局-2025-08-04-76</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>国家药监局关于注销小儿电解质补给注射液等56个药品注册证书的公告（2025年第62号）</t>
+          <t>国家药监局关于发布《医疗器械生产许可与备案管理基本数据集》等2个信息化标准的公告（2025年第75号）</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1159,52 +1147,52 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/ypqtggtg/20250701174200168.html</t>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ylqxggtg/ylqxhybzhgg/20250801145013147.html</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\yjj\2025-07-01_国家药监局关于注销小儿电解质补给注射液等56个药品注册证书的公告（2025年第62号）.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-08-01_国家药监局关于发布《医疗器械生产许可与备案管理基本数据集》等2个信息化标准的公告（2025年第75号）.zip</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['国家药品监督管理局2025年第62号公告附件.docx']</t>
+          <t>['国家药品监督管理局2025年第75号公告附件1.docx', '国家药品监督管理局2025年第75号公告附件2.docx']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>药监局-2025-07-01-62</t>
+          <t>药监局-2025-08-01-75</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>国家药监局关于抗感解毒片和舒筋活络止痛膏转换为非处方药的公告（2025年第60号）</t>
+          <t>国家药监局 公安部 国家卫生健康委关于发布药用类麻醉药品和精神药品目录的公告（2025年第55号）</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1214,27 +1202,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/ypqtggtg/20250625160217110.html</t>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/ypqtggtg/20250728092519123.html</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1242,24 +1230,24 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\yjj\2025-06-25_国家药监局关于抗感解毒片和舒筋活络止痛膏转换为非处方药的公告（2025年第60号）.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-07-28_国家药监局 公安部 国家卫生健康委关于发布药用类麻醉药品和精神药品目录的公告（2025年第55号）.zip</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['国家药品监督管理局2025年第60号公告附件1.docx', '国家药品监督管理局2025年第60号公告附件2.docx']</t>
+          <t>['国家药品监督管理局2025年第55号公告附件1 .doc', '国家药品监督管理局2025年第55号公告附件2.doc']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>药监局-2025-06-25-60</t>
+          <t>药监局-2025-07-28-55</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>国家药监局关于发布YY 0300—2025《牙科学 修复用人工牙》等38项医疗器械行业标准的公告（2025年第59号）</t>
+          <t>国家药监局关于盐酸氨溴索滴剂处方药转换为非处方药的公告（2025年第73号）</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1269,52 +1257,52 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ylqxggtg/ylqxhybzhgg/20250625151905183.html</t>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/ypqtggtg/20250725151939147.html</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\yjj\2025-06-25_国家药监局关于发布YY 0300—2025《牙科学 修复用人工牙》等38项医疗器械行业标准的公告（2025年第59号）.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-07-25_国家药监局关于盐酸氨溴索滴剂处方药转换为非处方药的公告（2025年第73号）.zip</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['国家药品监督管理局2025年第59号公告附件.docx']</t>
+          <t>['国家药品监督管理局2025年第73号公告附件1.docx', '国家药品监督管理局2025年第73号公告附件2.docx']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>药监局-2025-06-25-59</t>
+          <t>药监局-2025-07-25-73</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>六部门联合发布《关于将4-哌啶酮和1-叔丁氧羰基-4-哌啶酮列为易制毒化学品管理的公告》</t>
+          <t>国家药监局关于人参北芪胶囊和脑心舒口服液转换为非处方药的公告（2025年第71号）</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1324,48 +1312,52 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/ypqtggtg/20250625105418111.html</t>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/ypqtggtg/20250724101644155.html</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\yjj\2025-06-25_六部门联合发布《关于将4-哌啶酮和1-叔丁氧羰基-4-哌啶酮列为易制毒化学品管理的公告》.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-07-24_国家药监局关于人参北芪胶囊和脑心舒口服液转换为非处方药的公告（2025年第71号）.zip</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['关于将4-哌啶酮和1-叔丁氧羰基-4-哌啶酮列为易制毒化学品管理的公告.doc']</t>
+          <t>['国家药品监督管理局2025年第71号公告附件1.doc', '国家药品监督管理局2025年第71号公告附件2.doc']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>药监局-2025-06-25-六部门联合发布《关于将4-哌啶酮和1-叔丁氧羰基-4-哌啶酮列为易制毒化学品管理的公告》</t>
+          <t>药监局-2025-07-24-71</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025年6月25日中药品种保护受理公示</t>
+          <t>国家药监局关于中药保护品种的公告（延长保护期第23号）（2025年第70号）</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1375,23 +1367,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.nmpa.gov.cn/zwfw/zwfwgggs/zypzbhslgs/20250625095031160.html</t>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/zhybhpzh/zhybhpzhgg/20250722092257197.html</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1399,7 +1395,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\yjj\2025-06-25_2025年6月25日中药品种保护受理公示.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-07-22_国家药监局关于中药保护品种的公告（延长保护期第23号）（2025年第70号）.zip</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1409,14 +1405,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>药监局-2025-06-25-2025年6月25日中药品种保护受理公示</t>
+          <t>药监局-2025-07-22-70</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>国家药监局关于《已使用化妆品原料目录》管理有关事项的公告（2025年第61号）</t>
+          <t>中药保护品种公告(第28号)(2025年第68号)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1426,52 +1422,52 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.nmpa.gov.cn/xxgk/ggtg/hzhpggtg/jmhzhptg/20250624153604180.html</t>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/zhybhpzh/zhybhpzhgg/20250722092004119.html</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\yjj\2025-06-24_国家药监局关于《已使用化妆品原料目录》管理有关事项的公告（2025年第61号）.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-07-22_中药保护品种公告(第28号)(2025年第68号).zip</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['附件1：《已使用化妆品原料目录》Ⅰ.xlsx', '附件2：《已使用化妆品原料目录》Ⅱ.docx', '附件3：《已使用化妆品原料目录》调整说明.docx']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>药监局-2025-06-24-61</t>
+          <t>药监局-2025-07-22-68</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>国家药监局关于发布免于进行临床试验体外诊断试剂目录（2025年）的通告（2025年第23号）</t>
+          <t>国家药监局关于修订复方甘草酸单铵S注射剂说明书的公告（2025年第72号）</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1481,27 +1477,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ylqxggtg/ylqxqtggtg/20250624112000177.html</t>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/ypshmshxdgg/20250721152919174.html</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1509,24 +1505,24 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\yjj\2025-06-24_国家药监局关于发布免于进行临床试验体外诊断试剂目录（2025年）的通告（2025年第23号）.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-07-21_国家药监局关于修订复方甘草酸单铵S注射剂说明书的公告（2025年第72号）.zip</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['国家药品监督管理局2025年第23号通告附件.doc']</t>
+          <t>['国家药品监督管理局2025年第72号公告附件.docx']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>药监局-2025-06-24-23</t>
+          <t>药监局-2025-07-21-72</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>国家药监局关于批准注册236个医疗器械产品的公告(2025年5月)(2025年第58号)</t>
+          <t>国家药监局关于废止《外科植入物 金属材料 第7部分：可锻和冷加工的钴-铬-镍-钼-铁合金》等3项医疗器械行业标准的公告（2025年第69号）</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1536,27 +1532,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ylqxggtg/ylqxpzhzhcchpgg/20250619152253154.html</t>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ylqxggtg/ylqxhybzhgg/20250717165828173.html</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1564,17 +1560,288 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\yjj\2025-06-19_国家药监局关于批准注册236个医疗器械产品的公告(2025年5月)(2025年第58号).zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-07-17_国家药监局关于废止《外科植入物 金属材料 第7部分：可锻和冷加工的钴-铬-镍-钼-铁合金》等3项医疗器械行业标准的公告（2025年第69号）.zip</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['国家药品监督管理局2025年第58号公告附件.docx']</t>
+          <t>['国家药品监督管理局2025年第69号公告附件.docx']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>药监局-2025-06-19-58</t>
+          <t>药监局-2025-07-17-69</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>国家药品监督管理局关于ω-3鱼油脂肪乳注射液说明书增加儿童用药信息的公告（2025年第85号）</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>药监局</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/ypqtggtg/20250908142836116.html</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-09-08_国家药品监督管理局关于ω-3鱼油脂肪乳注射液说明书增加儿童用药信息的公告（2025年第85号）.zip</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>['国家药品监督管理局2025年第85号公告附件.docx']</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>药监局-2025-09-08-85</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>国家药监局关于发布中药生产监督管理专门规定的公告（2025年第79号）</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>药监局</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/ypqtggtg/20250908094819150.html</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-09-08_国家药监局关于发布中药生产监督管理专门规定的公告（2025年第79号）.zip</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>['2025年第79号公告附件.doc']</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>药监局-2025-09-08-79</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>国家药监局关于注销全自动医用PCR分析仪等2个医疗器械注册证书的公告（2025年第83号）</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>药监局</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ylqxggtg/ylqxqtggtg/20250904170633184.html</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-09-04_国家药监局关于注销全自动医用PCR分析仪等2个医疗器械注册证书的公告（2025年第83号）.zip</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>药监局-2025-09-04-83</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>国家药监局关于发布仿制药参比制剂目录（第九十五批）的通告（2025年第33号）</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>药监局</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ypggtg/ypqtggtg/20250902145508155.html</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-09-02_国家药监局关于发布仿制药参比制剂目录（第九十五批）的通告（2025年第33号）.zip</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>['国家药品监督管理局2025年第33号通告附件.doc']</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>药监局-2025-09-02-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>国家药监局综合司关于《采用脑机接口技术的医疗器械 RACA机器人运动意图编解码性能测试方法》推荐性医疗器械行业标准立项的公示</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>药监局</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.nmpa.gov.cn/xxgk/ggtg/ylqxggtg/ylqxhybzhgg/20250902110922113.html</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\yjj\2025-09-02_国家药监局综合司关于《采用脑机接口技术的医疗器械 RACA机器人运动意图编解码性能测试方法》推荐性医疗器械行业标准立项的公示.zip</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>['附件.doc']</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>药监局-2025-09-02-国家药监局综合司关于《采用脑机接口技术的医疗器械 RACA机器人运动意图编解码性能测试方法》推荐性医疗器械行业标准立项的公示</t>
         </is>
       </c>
     </row>
